--- a/biology/Zoologie/Buthacus_levyi/Buthacus_levyi.xlsx
+++ b/biology/Zoologie/Buthacus_levyi/Buthacus_levyi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Buthacus levyi est une espèce de scorpions de la famille des Buthidae.
 </t>
@@ -511,10 +523,12 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre dans le Nord de l'Égypte et en Israël[1].
-Sa présence est incertaine en Libye[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre dans le Nord de l'Égypte et en Israël.
+Sa présence est incertaine en Libye.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le mâle holotype mesure 50,9 mm, les mâles mesurent de 45,4 à 52,5 mm et les femelles de 53,6 à 62 mm[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le mâle holotype mesure 50,9 mm, les mâles mesurent de 45,4 à 52,5 mm et les femelles de 53,6 à 62 mm.
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Gershom Levy[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Gershom Levy.
 </t>
         </is>
       </c>
@@ -605,7 +623,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Cain, Gefen &amp; Prendini, 2021 : « Systematic Revision of the Sand Scorpions, Genus Buthacus Birula, 1908 (Buthidae C.L. Koch, 1837) of the Levant, with Redescription of Buthacus arenicola (Simon, 1885) from Algeria and Tunisia. » Bulletin of The American Museum of Natural History, no 450, p. 1-134 (texte intégral).</t>
         </is>
